--- a/data/extracted_data/raw/Qiu_etal_2018_Fig4.xlsx
+++ b/data/extracted_data/raw/Qiu_etal_2018_Fig4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB78F4-FC6E-7243-AE0F-7718ADD01D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228FE030-50AF-4943-B864-8F387EA2118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="7700" windowWidth="23640" windowHeight="11940" xr2:uid="{1812341B-4FDB-9247-B3E7-023BB0CAFBB9}"/>
+    <workbookView xWindow="480" yWindow="1680" windowWidth="35360" windowHeight="13080" xr2:uid="{1812341B-4FDB-9247-B3E7-023BB0CAFBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Qiu_etal_2018_Fig4" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
-  <si>
-    <t>phase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>day</t>
   </si>
@@ -31,13 +28,7 @@
     <t>toxicity</t>
   </si>
   <si>
-    <t>Intoxication</t>
-  </si>
-  <si>
     <t>C1/2</t>
-  </si>
-  <si>
-    <t>Depuration</t>
   </si>
   <si>
     <t>C3/4</t>
@@ -55,10 +46,10 @@
     <t>GTX6</t>
   </si>
   <si>
-    <t>NEO</t>
+    <t>treatment</t>
   </si>
   <si>
-    <t>treatment</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -542,8 +533,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,712 +911,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483785C-3C6D-5740-B505-4EF73F37D381}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>1.41331519579068E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6.9217111713732997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C4">
+        <v>26.457260465157301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>83.145332968226896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>30.771405100301202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>18.877651070144601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.29962282150712799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3.3262373132878098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>12.9742334973367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>38.5015325636654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>8.6000229663719505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>6.2934925668454103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.29962282150712799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2.7262850126756799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>8.7795139962370694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17">
+        <v>19.9249176302237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>10.697382716921799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>5.9931630877403803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.29962282150712799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3.0259078341827998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>6.6814475880892799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>19.925624287821599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4.4053034652722101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25">
+        <v>2.3969825720570102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.59924564301425598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.92996139882873696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4.2858783312280897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10.038071178086501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>2.6075665362294802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1.7984435866406401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-0.299622821507114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.33000909821657798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="C34">
+        <v>1.2896501161568401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2.8471234619155799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>1.1087457710959501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0.599952300612145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23">
+      <c r="C38" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>17.260111828564906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
+      <c r="C40" s="1">
+        <v>60.467983994205284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
+      <c r="C41" s="1">
+        <v>174.38260208993967</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>58.190426556192591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>9</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
+      <c r="C43" s="1">
+        <v>35.959685184040183</v>
       </c>
     </row>
   </sheetData>
